--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Maquina" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="156">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
   </si>
   <si>
     <t xml:space="preserve">IIP2019</t>
@@ -58,6 +61,9 @@
 ¿existen acuerdos y/o actos administrativos de su 
 entidad relacionados con el concepto de innovación 
 pública? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 2. Planeación Estratégica: Existencia dentro de la planeación estratégica de la institución de una relación con el concepto de innovación pública </t>
@@ -784,13 +790,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="20.35"/>
@@ -814,532 +820,628 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1358,13 +1460,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F1:F32 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.95"/>
@@ -1385,41 +1487,53 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,17 +1541,23 @@
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,19 +1565,25 @@
       <c r="B7" s="5"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,17 +1591,23 @@
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1483,241 +1615,307 @@
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="157">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
   </si>
   <si>
     <t xml:space="preserve">IIP2019</t>
@@ -539,8 +542,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -630,7 +634,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,6 +661,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -790,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -823,625 +831,721 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>5.16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>10.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>2.35</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1567,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F1:F32 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,429 +1597,429 @@
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
+      <c r="C6" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
-        <v>99</v>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
-        <v>112</v>
+      <c r="B16" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>129</v>
+      <c r="B22" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="B24" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="7" t="s">
-        <v>140</v>
+      <c r="B26" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -883,7 +883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,10 +905,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1130,2497 +1126,2497 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="n">
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="9" t="n">
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>5.16</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="8" t="n">
         <v>5.16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="n">
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8" t="n">
         <v>4.22</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="8" t="n">
         <v>4.22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="9" t="n">
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8" t="n">
         <v>5.84</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="M11" s="8" t="n">
         <v>5.84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="9" t="n">
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="n">
         <v>4.78</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="8" t="n">
         <v>4.78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="9" t="n">
+      <c r="L14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="8" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="9" t="n">
+      <c r="I16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="8" t="n">
         <v>1.26</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="9" t="n">
+      <c r="L16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="8" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="9" t="n">
+      <c r="I17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="8" t="n">
         <v>1.26</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="9" t="n">
+      <c r="I18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="9" t="n">
+      <c r="L18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="8" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="9" t="n">
+      <c r="I19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="9" t="n">
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="9" t="n">
+      <c r="I21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="6"/>
+      <c r="L21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="9" t="n">
+      <c r="I22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="9" t="n">
+      <c r="L23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="8" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="8" t="n">
         <v>3.78</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="6"/>
+      <c r="L25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="9" t="n">
+      <c r="I26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="9" t="n">
+      <c r="M26" s="8" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="9" t="n">
+      <c r="I27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="9" t="n">
+      <c r="I28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="6"/>
+      <c r="L28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="9" t="n">
+      <c r="I29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="9" t="n">
+      <c r="I30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="9" t="n">
+      <c r="L30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="8" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="9" t="n">
+      <c r="I31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="9" t="n">
+      <c r="I32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="9" t="n">
+      <c r="I33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="10"/>
+      <c r="L33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="9" t="n">
+      <c r="I34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="9" t="n">
+      <c r="J35" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="9" t="n">
+      <c r="L35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="8" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="9" t="n">
+      <c r="I37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="9" t="n">
+      <c r="L37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="8" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="9" t="n">
+      <c r="I38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="10"/>
+      <c r="L38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="9" t="n">
+      <c r="I39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="10"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="9" t="n">
+      <c r="I40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="10"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="9" t="n">
+      <c r="I41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="10"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="9" t="n">
+      <c r="I42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="10"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8" t="s">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="9" t="n">
+      <c r="I43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="10"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="9" t="n">
+      <c r="I44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="10"/>
+      <c r="L44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="9" t="n">
+      <c r="I45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="10"/>
+      <c r="L45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="9" t="n">
+      <c r="I46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="10"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="9" t="n">
+      <c r="I47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="10"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="9" t="n">
+      <c r="I48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="10"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="9" t="n">
+      <c r="I49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="8" t="n">
         <v>10.8</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M49" s="10"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="9" t="n">
+      <c r="L50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="10"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K52" s="8" t="s">
+      <c r="I52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9" t="n">
+      <c r="L52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K53" s="8" t="s">
+      <c r="I53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="9"/>
+      <c r="L53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K54" s="8" t="s">
+      <c r="I54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K55" s="8" t="s">
+      <c r="I55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="9"/>
+      <c r="L55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K56" s="8" t="s">
+      <c r="I56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="9"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="9" t="n">
+      <c r="I57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="9" t="n">
+      <c r="M57" s="8" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="9" t="n">
+      <c r="I58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="9" t="n">
+      <c r="M58" s="8" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8" t="s">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="9" t="n">
+      <c r="I59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="9" t="n">
+      <c r="L59" s="7"/>
+      <c r="M59" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="9" t="n">
+      <c r="I60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="9"/>
+      <c r="M60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="9" t="n">
+      <c r="I61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="8" t="n">
         <v>2.94</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="9" t="n">
+      <c r="L61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="8" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I62" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="9" t="n">
+      <c r="I62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="8" t="n">
         <v>2.94</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="9" t="n">
+      <c r="I63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="8" t="n">
         <v>0.78</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="9" t="n">
+      <c r="M63" s="8" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="9" t="n">
+      <c r="I64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="8" t="n">
         <v>0.78</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="9" t="n">
+      <c r="M64" s="8" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="9" t="n">
+      <c r="I65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="8" t="n">
         <v>0.78</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="L65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="9" t="n">
+      <c r="M65" s="8" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="9" t="n">
+      <c r="I66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="9" t="n">
+      <c r="L66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="8" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="9" t="n">
+      <c r="I67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="9" t="n">
+      <c r="M67" s="8" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="9" t="n">
+      <c r="I68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="9"/>
+      <c r="M68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="6"/>
+      <c r="D69" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="9" t="n">
+      <c r="I69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="9"/>
+      <c r="L69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="6"/>
+      <c r="D70" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8" t="s">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="9" t="n">
+      <c r="I70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="L70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="9"/>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8" t="s">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="9" t="n">
+      <c r="I71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="9" t="n">
+      <c r="M71" s="8" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="6"/>
+      <c r="D72" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8" t="s">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="9" t="n">
+      <c r="I72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="9"/>
+      <c r="M72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="6"/>
+      <c r="D73" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="9" t="n">
+      <c r="I73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="9"/>
+      <c r="L73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="9" t="n">
+      <c r="I74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="8" t="n">
         <v>0.79</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="L74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="9"/>
+      <c r="M74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="9" t="n">
+      <c r="I75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="8" t="n">
         <v>2.35</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="9" t="n">
+      <c r="M75" s="8" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -3655,446 +3651,446 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -792,8 +792,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -883,7 +883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,12 +896,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -912,12 +932,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1069,2554 +1093,3096 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="39.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="39.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="51.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="42.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="8" t="n">
+      <c r="L2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="8" t="n">
+      <c r="L4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="14" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="15" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="M6" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="14" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="15" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="15" t="n">
         <v>5.16</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="15" t="n">
         <v>5.16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="14" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="15" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="M8" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="14" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="15" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="8" t="n">
+      <c r="I9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="15" t="n">
         <v>4.22</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="15" t="n">
         <v>4.22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="14" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="15" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="I10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="M10" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="14" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="15" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="15" t="n">
         <v>5.84</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="15" t="n">
         <v>5.84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="14" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="I12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="M12" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="14" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="15" t="n">
         <v>4.78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="15" t="n">
         <v>4.78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="8" t="n">
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="15" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="15" t="n">
         <v>1.26</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="8" t="n">
+      <c r="L16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="15" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="15" t="n">
         <v>1.26</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="8" t="n">
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="8" t="n">
+      <c r="L18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="15" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="8" t="n">
+      <c r="I19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8" t="n">
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="8" t="n">
+      <c r="I21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="5"/>
+      <c r="L21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="8" t="n">
+      <c r="I22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="G23" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="8" t="n">
+      <c r="L23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="15" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="15" t="n">
         <v>3.78</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="15" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="5"/>
+      <c r="L25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="8" t="n">
+      <c r="I26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="15" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8" t="n">
+      <c r="I27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="8" t="n">
+      <c r="I28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="5"/>
+      <c r="L28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
+      <c r="G29" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="8" t="n">
+      <c r="I29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="8" t="n">
+      <c r="I30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="8" t="n">
+      <c r="L30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="15" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="8" t="n">
+      <c r="I31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="8" t="n">
+      <c r="I32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="G33" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="8" t="n">
+      <c r="I33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="9"/>
+      <c r="L33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="8" t="n">
+      <c r="I34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="G35" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="8" t="n">
+      <c r="L35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="15" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="8" t="n">
+      <c r="J36" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="8" t="n">
+      <c r="I37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="8" t="n">
+      <c r="L37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="15" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="8" t="n">
+      <c r="I38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="9"/>
+      <c r="L38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="8" t="n">
+      <c r="I39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="8" t="n">
+      <c r="I40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
+      <c r="E41" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="8" t="n">
+      <c r="I41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="M41" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="8" t="n">
+      <c r="I42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="M42" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
+      <c r="G43" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="8" t="n">
+      <c r="I43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="8" t="n">
+      <c r="I44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="9"/>
+      <c r="L44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="8" t="n">
+      <c r="I45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="9"/>
+      <c r="L45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="8" t="n">
+      <c r="I46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="8" t="n">
+      <c r="I47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="G48" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="8" t="n">
+      <c r="I48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="9"/>
+      <c r="M48" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="8" t="n">
+      <c r="I49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="15" t="n">
         <v>10.8</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="G50" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="8" t="n">
+      <c r="J50" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="8" t="n">
+      <c r="L50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+      <c r="G51" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="8" t="n">
+      <c r="J51" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="9"/>
+      <c r="M51" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="G52" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="I52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="8" t="n">
+      <c r="L52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="I53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="8"/>
+      <c r="L53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
+      <c r="G54" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K54" s="7" t="s">
+      <c r="I54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="8"/>
+      <c r="M54" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
+      <c r="G55" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K55" s="7" t="s">
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="8"/>
+      <c r="L55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
+      <c r="G56" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K56" s="7" t="s">
+      <c r="I56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K56" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="8"/>
+      <c r="M56" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
+      <c r="G57" s="15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="8" t="n">
+      <c r="I57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="8" t="n">
+      <c r="M57" s="15" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7" t="s">
+      <c r="E58" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
+      <c r="G58" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="8" t="n">
+      <c r="I58" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="8" t="n">
+      <c r="M58" s="15" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
+      <c r="G59" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7" t="s">
+      <c r="I59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="8" t="n">
+      <c r="L59" s="13"/>
+      <c r="M59" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
+      <c r="E60" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
+      <c r="G60" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="7" t="s">
+      <c r="I60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="8"/>
+      <c r="M60" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
+      <c r="G61" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="8" t="n">
+      <c r="I61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="15" t="n">
         <v>2.94</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="8" t="n">
+      <c r="L61" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="15" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
+      <c r="E62" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
+      <c r="G62" s="15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="8" t="n">
+      <c r="I62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="15" t="n">
         <v>2.94</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="8"/>
+      <c r="M62" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7" t="s">
+      <c r="E63" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
+      <c r="G63" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="8" t="n">
+      <c r="I63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="15" t="n">
         <v>0.78</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K63" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="8" t="n">
+      <c r="M63" s="15" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7" t="s">
+      <c r="E64" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
+      <c r="G64" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="8" t="n">
+      <c r="I64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="15" t="n">
         <v>0.78</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="8" t="n">
+      <c r="M64" s="15" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7" t="s">
+      <c r="E65" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
+      <c r="G65" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H65" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="8" t="n">
+      <c r="I65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="15" t="n">
         <v>0.78</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K65" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="8" t="n">
+      <c r="M65" s="15" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7" t="s">
+      <c r="E66" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
+      <c r="G66" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="8" t="n">
+      <c r="I66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K66" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="8" t="n">
+      <c r="L66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="15" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
+      <c r="E67" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
+      <c r="G67" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H67" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="8" t="n">
+      <c r="I67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K67" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="8" t="n">
+      <c r="M67" s="15" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7" t="s">
+      <c r="E68" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
+      <c r="G68" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="8" t="n">
+      <c r="I68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K68" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="8"/>
+      <c r="M68" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7" t="s">
+      <c r="E69" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
+      <c r="G69" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="8" t="n">
+      <c r="I69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K69" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="8"/>
+      <c r="L69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
+      <c r="E70" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
+      <c r="G70" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="8" t="n">
+      <c r="I70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K70" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="8"/>
+      <c r="M70" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
+      <c r="E71" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
+      <c r="G71" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H71" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="8" t="n">
+      <c r="I71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K71" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="8" t="n">
+      <c r="M71" s="15" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
+      <c r="G72" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="8" t="n">
+      <c r="I72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K72" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="8"/>
+      <c r="M72" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7" t="s">
+      <c r="C73" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7" t="s">
+      <c r="E73" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
+      <c r="G73" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="8" t="n">
+      <c r="I73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="8"/>
+      <c r="L73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
+      <c r="E74" s="14" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
+      <c r="G74" s="15" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H74" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="8" t="n">
+      <c r="I74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="15" t="n">
         <v>0.79</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="8"/>
+      <c r="M74" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7" t="s">
+      <c r="C75" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I75" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="8" t="n">
+      <c r="I75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="15" t="n">
         <v>2.35</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="8" t="n">
+      <c r="M75" s="15" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -3645,452 +4211,452 @@
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="51.25"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="2" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="19" t="s">
         <v>20</v>
       </c>
     </row>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -883,7 +883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -920,14 +920,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,6 +937,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1093,8 +1089,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,7 +1137,7 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -1150,3039 +1146,3039 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="15" t="n">
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="15" t="n">
+      <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="15" t="n">
+      <c r="L4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="13" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="15" t="n">
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="M5" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="12" t="n">
         <v>9.38</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="13" t="n">
         <v>5.16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="15" t="n">
+      <c r="M6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="12" t="n">
         <v>9.38</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="13" t="n">
         <v>5.16</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="15" t="n">
+      <c r="I7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="n">
         <v>5.16</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="15" t="n">
+      <c r="M7" s="13" t="n">
         <v>5.16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="12" t="n">
         <v>9.38</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="13" t="n">
         <v>4.22</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="15" t="n">
+      <c r="M8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="12" t="n">
         <v>9.38</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="13" t="n">
         <v>4.22</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="15" t="n">
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13" t="n">
         <v>4.22</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="M9" s="13" t="n">
         <v>4.22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="12" t="n">
         <v>10.63</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="13" t="n">
         <v>5.84</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="15" t="n">
+      <c r="M10" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="12" t="n">
         <v>10.63</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="13" t="n">
         <v>5.84</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="15" t="n">
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="n">
         <v>5.84</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="15" t="n">
+      <c r="M11" s="13" t="n">
         <v>5.84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="12" t="n">
         <v>10.63</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="13" t="n">
         <v>4.78</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="15" t="n">
+      <c r="M12" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="12" t="n">
         <v>10.63</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="13" t="n">
         <v>4.78</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="15" t="n">
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="13" t="n">
         <v>4.78</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="15" t="n">
+      <c r="M13" s="13" t="n">
         <v>4.78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="15" t="n">
+      <c r="J14" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="15" t="n">
+      <c r="L14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="15" t="n">
+      <c r="J15" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="15" t="n">
+      <c r="M15" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="13" t="n">
         <v>1.26</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="15" t="n">
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="n">
         <v>1.26</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="15" t="n">
+      <c r="L16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="13" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="13" t="n">
         <v>1.26</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="15" t="n">
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="13" t="n">
         <v>1.26</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="15" t="n">
+      <c r="M17" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="15" t="n">
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="15" t="n">
+      <c r="L18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="15" t="n">
+      <c r="G19" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="15" t="n">
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="15" t="n">
+      <c r="M19" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="15" t="n">
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="15" t="n">
+      <c r="M20" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="15" t="n">
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="15" t="n">
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="15" t="n">
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="15" t="n">
+      <c r="M22" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="15" t="n">
+      <c r="J23" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="15" t="n">
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="15" t="n">
+      <c r="M24" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="15" t="n">
+      <c r="G25" s="13" t="n">
         <v>3.78</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="15" t="n">
+      <c r="J25" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="15" t="n">
+      <c r="L25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="15" t="n">
+      <c r="I26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="15" t="n">
+      <c r="M26" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="15" t="n">
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="15" t="n">
+      <c r="M27" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="15" t="n">
+      <c r="I28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="15" t="n">
+      <c r="L28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="15" t="n">
+      <c r="I29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="15" t="n">
+      <c r="M29" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="15" t="n">
+      <c r="I30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="15" t="n">
+      <c r="L30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="G31" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="15" t="n">
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="15" t="n">
+      <c r="M31" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="15" t="n">
+      <c r="G32" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="15" t="n">
+      <c r="I32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="15" t="n">
+      <c r="M32" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="15" t="n">
+      <c r="G33" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="15" t="n">
+      <c r="I33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="15" t="n">
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="15" t="n">
+      <c r="G34" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="15" t="n">
+      <c r="I34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="15" t="n">
+      <c r="M34" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="12" t="n">
+      <c r="C35" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="15" t="n">
+      <c r="G35" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="15" t="n">
+      <c r="J35" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="15" t="n">
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="12" t="n">
         <v>12.6</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="15" t="n">
+      <c r="G36" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="15" t="n">
+      <c r="J36" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="15" t="n">
+      <c r="M36" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="15" t="n">
+      <c r="G37" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="15" t="n">
+      <c r="I37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="15" t="n">
+      <c r="L37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="13" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="15" t="n">
+      <c r="G38" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="15" t="n">
+      <c r="I38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="15" t="n">
+      <c r="L38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="15" t="n">
+      <c r="G39" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="15" t="n">
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="15" t="n">
+      <c r="M39" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="G40" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="15" t="n">
+      <c r="I40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="15" t="n">
+      <c r="M40" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="G41" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="15" t="n">
+      <c r="I41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="15" t="n">
+      <c r="M41" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="15" t="n">
+      <c r="G42" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="15" t="n">
+      <c r="I42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="K42" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="15" t="n">
+      <c r="M42" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="15" t="n">
+      <c r="I43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="15" t="n">
+      <c r="M43" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="G44" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="15" t="n">
+      <c r="I44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="15" t="n">
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="15" t="n">
+      <c r="E45" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="15" t="n">
+      <c r="G45" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="15" t="n">
+      <c r="I45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="15" t="n">
+      <c r="L45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="12" t="n">
+      <c r="C46" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="15" t="n">
+      <c r="E46" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="15" t="n">
+      <c r="G46" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="15" t="n">
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="15" t="n">
+      <c r="M46" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="15" t="n">
+      <c r="E47" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="15" t="n">
+      <c r="G47" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="15" t="n">
+      <c r="I47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="15" t="n">
+      <c r="M47" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="12" t="n">
+      <c r="C48" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="15" t="n">
+      <c r="E48" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="G48" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="15" t="n">
+      <c r="I48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="15" t="n">
+      <c r="M48" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="12" t="n">
+      <c r="C49" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="15" t="n">
+      <c r="E49" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="15" t="n">
+      <c r="G49" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="15" t="n">
+      <c r="I49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M49" s="15" t="n">
+      <c r="M49" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12" t="n">
+      <c r="C50" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="15" t="n">
+      <c r="G50" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="15" t="n">
+      <c r="J50" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="15" t="n">
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="13" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="12" t="n">
+      <c r="C51" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="15" t="n">
+      <c r="G51" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="15" t="n">
+      <c r="J51" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="15" t="n">
+      <c r="M51" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H52" s="13" t="s">
+      <c r="G52" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K52" s="13" t="s">
+      <c r="I52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="15" t="n">
+      <c r="L52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="13" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="12" t="n">
+      <c r="C53" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="F53" s="13" t="s">
+      <c r="E53" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G53" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H53" s="13" t="s">
+      <c r="G53" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K53" s="13" t="s">
+      <c r="I53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L53" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="15" t="n">
+      <c r="L53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="E54" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H54" s="13" t="s">
+      <c r="G54" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K54" s="13" t="s">
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="15" t="n">
+      <c r="M54" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="12" t="n">
+      <c r="C55" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="F55" s="13" t="s">
+      <c r="E55" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G55" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H55" s="13" t="s">
+      <c r="G55" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K55" s="13" t="s">
+      <c r="I55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="L55" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="15" t="n">
+      <c r="L55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="F56" s="13" t="s">
+      <c r="E56" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H56" s="13" t="s">
+      <c r="G56" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K56" s="13" t="s">
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="15" t="n">
+      <c r="M56" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="12" t="n">
+      <c r="C57" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G57" s="15" t="n">
+      <c r="G57" s="13" t="n">
         <v>3.5</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="15" t="n">
+      <c r="I57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="13" t="n">
         <v>3.5</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="15" t="n">
+      <c r="M57" s="13" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="12" t="n">
+      <c r="C58" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="14" t="n">
+      <c r="E58" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G58" s="15" t="n">
+      <c r="G58" s="13" t="n">
         <v>1.5</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="15" t="n">
+      <c r="I58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="13" t="n">
         <v>1.5</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="15" t="n">
+      <c r="M58" s="13" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="12" t="n">
+      <c r="C59" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="15" t="n">
+      <c r="E59" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="13" t="s">
+      <c r="G59" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="13" t="s">
+      <c r="I59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="15" t="n">
+      <c r="L59" s="11"/>
+      <c r="M59" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="12" t="n">
+      <c r="C60" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="15" t="n">
+      <c r="E60" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13" t="s">
+      <c r="G60" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="13" t="s">
+      <c r="I60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="15" t="n">
+      <c r="M60" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="12" t="n">
+      <c r="C61" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="15" t="n">
+      <c r="E61" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="15" t="n">
+      <c r="G61" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="15" t="n">
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="15" t="n">
+      <c r="L61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="13" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="12" t="n">
+      <c r="C62" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="15" t="n">
+      <c r="E62" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="15" t="n">
+      <c r="G62" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="15" t="n">
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="n">
         <v>2.94</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="L62" s="13" t="s">
+      <c r="L62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="15" t="n">
+      <c r="M62" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="12" t="n">
+      <c r="C63" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G63" s="15" t="n">
+      <c r="G63" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="15" t="n">
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="K63" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="L63" s="13" t="s">
+      <c r="L63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="15" t="n">
+      <c r="M63" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="12" t="n">
+      <c r="C64" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="14" t="n">
+      <c r="E64" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="15" t="n">
+      <c r="G64" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="15" t="n">
+      <c r="I64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L64" s="13" t="s">
+      <c r="L64" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="15" t="n">
+      <c r="M64" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="12" t="n">
+      <c r="C65" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="14" t="n">
+      <c r="E65" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="15" t="n">
+      <c r="G65" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="15" t="n">
+      <c r="I65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="K65" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="L65" s="13" t="s">
+      <c r="L65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="15" t="n">
+      <c r="M65" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="12" t="n">
+      <c r="C66" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="14" t="n">
+      <c r="E66" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="15" t="n">
+      <c r="G66" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="15" t="n">
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="L66" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="15" t="n">
+      <c r="L66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="12" t="n">
+      <c r="C67" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="14" t="n">
+      <c r="E67" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="15" t="n">
+      <c r="G67" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="15" t="n">
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L67" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="15" t="n">
+      <c r="M67" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="12" t="n">
+      <c r="C68" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="14" t="n">
+      <c r="E68" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="15" t="n">
+      <c r="G68" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="15" t="n">
+      <c r="I68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="L68" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="15" t="n">
+      <c r="M68" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="12" t="n">
+      <c r="C69" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="14" t="n">
+      <c r="E69" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="15" t="n">
+      <c r="G69" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I69" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="15" t="n">
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="15" t="n">
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="12" t="n">
+      <c r="C70" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="14" t="n">
+      <c r="E70" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="15" t="n">
+      <c r="G70" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="15" t="n">
+      <c r="I70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L70" s="13" t="s">
+      <c r="L70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="15" t="n">
+      <c r="M70" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="12" t="n">
+      <c r="C71" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="14" t="n">
+      <c r="E71" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G71" s="15" t="n">
+      <c r="G71" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="15" t="n">
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L71" s="13" t="s">
+      <c r="L71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="15" t="n">
+      <c r="M71" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="12" t="n">
+      <c r="C72" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="14" t="n">
+      <c r="E72" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G72" s="15" t="n">
+      <c r="G72" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="15" t="n">
+      <c r="I72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L72" s="13" t="s">
+      <c r="L72" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="15" t="n">
+      <c r="M72" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="12" t="n">
+      <c r="C73" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="14" t="n">
+      <c r="E73" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="15" t="n">
+      <c r="G73" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="15" t="n">
+      <c r="I73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="K73" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="15" t="n">
+      <c r="L73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="12" t="n">
+      <c r="C74" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="14" t="n">
+      <c r="E74" s="12" t="n">
         <v>4.71</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="15" t="n">
+      <c r="G74" s="13" t="n">
         <v>0.78</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="15" t="n">
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K74" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L74" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="15" t="n">
+      <c r="M74" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="12" t="n">
+      <c r="C75" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="15" t="n">
+      <c r="E75" s="13" t="n">
         <v>2.35</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="15" t="n">
+      <c r="G75" s="13" t="n">
         <v>2.35</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I75" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="15" t="n">
+      <c r="I75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="13" t="n">
         <v>2.35</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="K75" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="L75" s="13" t="s">
+      <c r="L75" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="15" t="n">
+      <c r="M75" s="13" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -4217,446 +4213,446 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="242">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -57,7 +57,10 @@
     <t xml:space="preserve">wp</t>
   </si>
   <si>
-    <t xml:space="preserve">Subpregunta</t>
+    <t xml:space="preserve">SubPregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
   </si>
   <si>
     <t xml:space="preserve">ts</t>
@@ -1087,10 +1090,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,7 +1109,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="42.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1149,3036 +1152,3113 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="13" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="13" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="13" t="n">
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>9.38</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>5.16</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>9.38</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>5.16</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="13" t="n">
         <v>5.16</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="13" t="n">
         <v>5.16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>9.38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>4.22</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12" t="n">
         <v>9.38</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>4.22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="13" t="n">
         <v>4.22</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="13" t="n">
         <v>4.22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>10.63</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>5.84</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12" t="n">
         <v>10.63</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>5.84</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="13" t="n">
         <v>5.84</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="13" t="n">
         <v>5.84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>10.63</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>4.78</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="12" t="n">
         <v>10.63</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>4.78</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="13" t="n">
         <v>4.78</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="13" t="n">
         <v>4.78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="13" t="n">
+        <v>55</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="13" t="n">
         <v>1.26</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="13" t="n">
         <v>1.26</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="13" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>1.26</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="13" t="n">
         <v>1.26</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="13" t="n">
         <v>3.78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>3.78</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J31" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="12" t="n">
         <v>12.6</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J36" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="13" t="n">
         <v>10.8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J39" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J40" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J42" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J43" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G44" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J44" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="13" t="n">
+        <v>101</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J45" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G46" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J46" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J47" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" s="13" t="n">
         <v>10.8</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J50" s="13" t="n">
         <v>4</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="13" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J51" s="13" t="n">
         <v>4</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J52" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="13" t="n">
+        <v>116</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="13" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J53" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="13" t="n">
+        <v>117</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E54" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J54" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M54" s="13" t="n">
+        <v>118</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G55" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J55" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E56" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G56" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M56" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E57" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G57" s="13" t="n">
         <v>3.5</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57" s="13" t="n">
         <v>3.5</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="13" t="n">
+        <v>124</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="13" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G58" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M58" s="13" t="n">
+        <v>127</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="13" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G59" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J59" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L59" s="11"/>
-      <c r="M59" s="13" t="n">
+      <c r="M59" s="11"/>
+      <c r="N59" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G60" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J60" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J61" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="13" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J62" s="13" t="n">
         <v>2.94</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M62" s="13" t="n">
+        <v>137</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E63" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J63" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E64" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E65" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J65" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M65" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="13" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E66" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J66" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G67" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J67" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="13" t="n">
+        <v>153</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G68" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J68" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M68" s="13" t="n">
+        <v>154</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N68" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E69" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G69" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J69" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="13" t="n">
+        <v>155</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G70" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J70" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M70" s="13" t="n">
+        <v>156</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E71" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G71" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J71" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M71" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="13" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J72" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M72" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N72" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E73" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J73" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="13" t="n">
+        <v>161</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" s="12" t="n">
         <v>4.71</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>0.78</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J74" s="13" t="n">
         <v>0.79</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M74" s="13" t="n">
+        <v>162</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E75" s="13" t="n">
         <v>2.35</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>2.35</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J75" s="13" t="n">
         <v>2.35</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="13" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -4201,7 +4281,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="L1 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4226,52 +4306,52 @@
         <v>7</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,23 +4359,23 @@
       <c r="B5" s="16"/>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,25 +4383,25 @@
       <c r="B7" s="16"/>
       <c r="C7" s="19"/>
       <c r="D7" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,23 +4409,23 @@
       <c r="B9" s="16"/>
       <c r="C9" s="19"/>
       <c r="D9" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4353,307 +4433,307 @@
       <c r="B11" s="16"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
       <c r="B20" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
       <c r="B32" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2019.xlsx
+++ b/preguntas/estructura/2019.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">unica</t>
   </si>
   <si>
-    <t xml:space="preserve">Determine los acuerdos y/o actos administrativos relacionados con el concepto de innovación Pública.</t>
+    <t xml:space="preserve">1. Determine los acuerdos y/o actos administrativos relacionados con el concepto de innovación Pública.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Justifique su respuesta. </t>
@@ -115,7 +115,7 @@
 concepto de innovación pública?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Determine los enfoques / líneas / componentes / proyectos / 
+    <t xml:space="preserve">2. Determine los enfoques / líneas / componentes / proyectos / 
 programas o planes relacionados con el concepto de innovación Pública.</t>
   </si>
   <si>
@@ -135,7 +135,7 @@
 funcionamiento ejecutado a 31 de diciembre de 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento</t>
+    <t xml:space="preserve">3. Presupuesto general de funcionamiento</t>
   </si>
   <si>
     <t xml:space="preserve">3. Suba aquí los archivos que justifican su respuesta. </t>
@@ -146,7 +146,7 @@
 pública a 31 de diciembre de 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento ejecutado en innovación.</t>
+    <t xml:space="preserve">4. Presupuesto general de funcionamiento ejecutado en innovación.</t>
   </si>
   <si>
     <t xml:space="preserve">4. Suba aquí los archivos que justifican su respuesta. </t>
@@ -159,7 +159,7 @@
 ejecutado a 31 de diciembre de 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión.</t>
+    <t xml:space="preserve">5. Presupuesto general de inversión.</t>
   </si>
   <si>
     <t xml:space="preserve">5. Suba aquí los archivos que justifican su respuesta. </t>
@@ -170,7 +170,7 @@
 diciembre de 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión ejecutado en innovación.</t>
+    <t xml:space="preserve">6. Presupuesto general de inversión ejecutado en innovación.</t>
   </si>
   <si>
     <t xml:space="preserve">6. Suba aquí los archivos que justifican su respuesta. </t>
@@ -186,7 +186,7 @@
 trabajaron en su entidad en 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios.</t>
+    <t xml:space="preserve">7. Total de funcionarios.</t>
   </si>
   <si>
     <t xml:space="preserve">7. Suba aquí los archivos que justifican su respuesta. </t>
@@ -197,7 +197,7 @@
 temas de innovación pública? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios en innovación por manual de funciones.</t>
+    <t xml:space="preserve">8. Total de funcionarios en innovación por manual de funciones.</t>
   </si>
   <si>
     <t xml:space="preserve">8. Suba aquí los archivos que justifican su respuesta. </t>
@@ -210,7 +210,7 @@
 trabajaron en su entidad en 2017? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas.</t>
+    <t xml:space="preserve">9. Total de contratistas.</t>
   </si>
   <si>
     <t xml:space="preserve">9. Suba aquí los archivos que justifican su respuesta. </t>
@@ -220,7 +220,7 @@
 innovación pública? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas en innovación.</t>
+    <t xml:space="preserve">10. Total de contratistas en innovación.</t>
   </si>
   <si>
     <t xml:space="preserve">10. Suba aquí los archivos que justifican su respuesta. </t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">multiple</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las actividades</t>
+    <t xml:space="preserve">11. Ingrese los detalles sobre las actividades</t>
   </si>
   <si>
     <t xml:space="preserve">11. ¿Eligió la(s) opción(es) A, B y/u Otra?</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">Pregunta 12. En 2017, ¿su entidad contaba con canales complementarios a "Bogotá te escucha" para que la ciudadanía pudiera identificar retos o áreas de oportunidad de su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre los canales para detección de retos</t>
+    <t xml:space="preserve">12. Ingrese los detalles sobre los canales para detección de retos</t>
   </si>
   <si>
     <t xml:space="preserve">12. Describa brevemente los canales complementarios que su entidad utilizó en 2017 para que la ciudadanía pudiera identificar retos o áreas de oportunidad de su entidad.</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Pregunta 13. En 2017, ¿su entidad utilizó algún canal para que los funcionarios y/o contratistas pudieran identificar retos o áreas de oportunidad de la entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre los canales para funcionarios para detección de retos</t>
+    <t xml:space="preserve">13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</t>
   </si>
   <si>
     <t xml:space="preserve">13. Describa brevemente los canales que su entidad utilizó en 2017 para que los funcionarios y/o contratistas pudieran identificar retos o áreas de oportunidad de su entidad.</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Pregunta 14. En 2017, ¿se llevó a cabo algún(os) tipo(s) de actividad(es) para la identificación de retos o áreas de oportunidad de la entidad que usted representa? Seleccione todas las que apliquen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las actividades para detección de retos</t>
+    <t xml:space="preserve">14. Ingrese los detalles sobre las actividades para detección de retos</t>
   </si>
   <si>
     <t xml:space="preserve">14. ¿Eligió la(s) opción(es) A, B y/o C?</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Pregunta 15. En 2017, ¿su entidad utilizó algún canal para la recepción de ideas de la ciudadanía, encaminadas al mejoramiento de su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</t>
+    <t xml:space="preserve">15. Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</t>
   </si>
   <si>
     <t xml:space="preserve">15. Suba aquí los archivos que justifican su respuesta. </t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Pregunta 16. En 2017, ¿su entidad utilizó algún canal para la recepción de ideas de funcionarios y/o contratistas relacionadas con el mejoramiento de su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</t>
+    <t xml:space="preserve">16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</t>
   </si>
   <si>
     <t xml:space="preserve">16. Describa brevemente los canales que su entidad utilizó en 2017 para la recepción de ideas de funcionarios y/o contratistas encaminadas al mejoramiento de la entidad. </t>
@@ -362,7 +362,7 @@
 Seleccione las que apliquen.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las actividades para la identificación de ideas</t>
+    <t xml:space="preserve">17. Ingrese los detalles sobre las actividades para la identificación de ideas</t>
   </si>
   <si>
     <t xml:space="preserve">17. ¿Eligió la(s) opción(es) A, B y/o C?</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Pregunta 18. En 2017, ¿su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las innovaciones diseñadas</t>
+    <t xml:space="preserve">18. Ingrese los detalles sobre las innovaciones diseñadas</t>
   </si>
   <si>
     <t xml:space="preserve">18.1 ¿Cuántas innovaciones diseñó su entidad en 2017?</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">Pregunta 19. En 2017, ¿qué actividades relacionadas con la generación de capacidades de innovación desarrolló su entidad con funcionarios y/o contratistas? Seleccione las que apliquen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las actividades para la generación de capacidades en innovación</t>
+    <t xml:space="preserve">19. Ingrese los detalles sobre las actividades para la generación de capacidades en innovación</t>
   </si>
   <si>
     <t xml:space="preserve">19. ¿Eligió la(s) opción(es) A, B y/u Otra?</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">Pregunta 20. ¿Alguna de las innovaciones diseñadas en 2017 fue implementada, o está en proceso de implementación actualmente? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrese los detalles sobre las innovaciones en proceso de implementación</t>
+    <t xml:space="preserve">20. Ingrese los detalles sobre las innovaciones en proceso de implementación</t>
   </si>
   <si>
     <t xml:space="preserve">20.1 ¿Cuántas innovaciones fueron implementadas o están en proceso de implementación?</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">Pregunta 21. En 2017, ¿cuántos funcionarios recibieron formación en temas de innovación? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios que recibieron formación en innovación</t>
+    <t xml:space="preserve">21. Total de funcionarios que recibieron formación en innovación</t>
   </si>
   <si>
     <t xml:space="preserve">21. Suba aquí los archivos que justifican su respuesta. </t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">Pregunta 22. En 2017, ¿cuántos contratistas recibieron formación en temas de innovación? </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas que recibieron formación en innovación</t>
+    <t xml:space="preserve">22. Total de contratistas que recibieron formación en innovación</t>
   </si>
   <si>
     <t xml:space="preserve">22. Suba aquí los archivos que justifican su respuesta. </t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">Pregunta 23. Desde su creación hasta el 31 de diciembre de 2017, ¿existen acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre los acuerdos y/o actos administrativos relacionados con el concepto de gestión del conocimiento.</t>
+    <t xml:space="preserve">23. Detalles sobre los acuerdos y/o actos administrativos relacionados con el concepto de gestión del conocimiento.</t>
   </si>
   <si>
     <t xml:space="preserve">23. Justifique su respuesta. </t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">Pregunta 24. ¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes en 2017 relacionados  con la gestión del conocimiento?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre los los enfoques / líneas / componentes / proyectos / 
+    <t xml:space="preserve">24. Detalles sobre los los enfoques / líneas / componentes / proyectos / 
 programas o planes relacionados con el concepto de gestión del conocimiento.</t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t xml:space="preserve">Pregunta 25. En 2017, ¿su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de identificación de retos o áreas de oportunidad con la ciudadanía provenientes de los canales y/o actividades mencionados en las preguntas 11, 12 y 14? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con la ciudadanía</t>
+    <t xml:space="preserve">25. Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con la ciudadanía</t>
   </si>
   <si>
     <t xml:space="preserve">25. Suba aquí los archivos que justifican su respuesta. </t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">Pregunta 26. En 2017, ¿su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de identificación de retos o áreas de oportunidad con los funcionarios y/o contratistas de su entidad provenientes    de los   canales   y/o actividades mencionados en las preguntas  13 y 14? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con los funcionarios y contratistas</t>
+    <t xml:space="preserve">26. Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con los funcionarios y contratistas</t>
   </si>
   <si>
     <t xml:space="preserve">26. Suba aquí los archivos que justifican su respuesta. </t>
@@ -567,7 +567,7 @@
     <t xml:space="preserve">Pregunta 27. En 2017, ¿su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de la recepción y generación de ideas con la ciudadanía provenientes de los canales y/o actividades mencionados en las preguntas 15 y 17? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con el proceso de captación de ideas con la ciudadanía</t>
+    <t xml:space="preserve">27. Detalles sobre el documento relacionado con el proceso de captación de ideas con la ciudadanía</t>
   </si>
   <si>
     <t xml:space="preserve">27. Suba aquí los archivos que justifican su respuesta. </t>
@@ -579,7 +579,7 @@
     <t xml:space="preserve">Pregunta 28. En 2017, ¿su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de la recepción y generación de ideas con los funcionarios y/o contratistas de su entidad provenientes de los canales y/o actividades mencionados en las  preguntas 16 y 17? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con el proceso de captación de ideas con los funcionarios y contratistas</t>
+    <t xml:space="preserve">28. Detalles sobre el documento relacionado con el proceso de captación de ideas con los funcionarios y contratistas</t>
   </si>
   <si>
     <t xml:space="preserve">28. Suba aquí los archivos que justifican su respuesta. </t>
@@ -591,7 +591,7 @@
     <t xml:space="preserve">Pregunta 29. En 2017, ¿su entidad desarrolló algún tipo de documento encaminado a identificar y sistematizar lecciones aprendidas y buenas prácticas sobre las acciones de innovación desarrolladas por su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</t>
+    <t xml:space="preserve">29. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</t>
   </si>
   <si>
     <t xml:space="preserve">29. Suba aquí los archivos que justifican su respuesta. </t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">Pregunta 30. En 2017, ¿su entidad desarrolló algún tipo de documento encaminado a identificar y sistematizar lecciones aprendidas y buenas prácticas sobre las acciones de su entidad? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</t>
+    <t xml:space="preserve">30. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</t>
   </si>
   <si>
     <t xml:space="preserve">30. Suba aquí los archivos que justifican su respuesta. </t>
@@ -636,7 +636,7 @@
     <t xml:space="preserve">Pregunta 31. En 2017, ¿su entidad desarrolló algún documento o matriz para hacer monitoreo y seguimiento a las innovaciones implementadas? </t>
   </si>
   <si>
-    <t xml:space="preserve">Detalles sobre el documento de segimiento a innovaciones implementadas</t>
+    <t xml:space="preserve">31. Detalles sobre el documento de segimiento a innovaciones implementadas</t>
   </si>
   <si>
     <t xml:space="preserve">31. Suba aquí los archivos que justifican su respuesta. </t>
@@ -928,18 +928,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -990,7 +984,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,10 +1022,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,10 +1180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,11 +1197,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="51.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="3" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="33.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="41.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="33.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="41.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16382" min="21" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1245,24 +1236,22 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1297,29 +1286,22 @@
       <c r="J2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K2,". ",L2)</f>
-        <v>1. Determine los acuerdos y/o actos administrativos relacionados con el concepto de innovación Pública.</v>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="n">
+      <c r="O2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1354,29 +1336,22 @@
       <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K3,". ",L3)</f>
-        <v>1. Determine los acuerdos y/o actos administrativos relacionados con el concepto de innovación Pública.</v>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="3" t="n">
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,30 +1386,22 @@
       <c r="J4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K4,". ",L4)</f>
-        <v>2. Determine los enfoques / líneas / componentes / proyectos / 
-programas o planes relacionados con el concepto de innovación Pública.</v>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="3" t="n">
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1469,30 +1436,22 @@
       <c r="J5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K5,". ",L5)</f>
-        <v>2. Determine los enfoques / líneas / componentes / proyectos / 
-programas o planes relacionados con el concepto de innovación Pública.</v>
+      <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="3" t="n">
+      <c r="O5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,29 +1486,22 @@
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K6,". ",L6)</f>
-        <v>3. Presupuesto general de funcionamiento</v>
+      <c r="L6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="3" t="n">
+      <c r="O6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1584,29 +1536,22 @@
       <c r="J7" s="3" t="n">
         <v>5.16</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K7,". ",L7)</f>
-        <v>4. Presupuesto general de funcionamiento ejecutado en innovación.</v>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>5.16</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="P7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="3" t="n">
+      <c r="O7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>5.16</v>
       </c>
     </row>
@@ -1641,29 +1586,22 @@
       <c r="J8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K8,". ",L8)</f>
-        <v>5. Presupuesto general de inversión.</v>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="3" t="n">
+      <c r="O8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1698,29 +1636,22 @@
       <c r="J9" s="3" t="n">
         <v>4.22</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K9,". ",L9)</f>
-        <v>6. Presupuesto general de inversión ejecutado en innovación.</v>
+      <c r="L9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>4.22</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="P9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="3" t="n">
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="3" t="n">
         <v>4.22</v>
       </c>
     </row>
@@ -1755,29 +1686,22 @@
       <c r="J10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="K10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K10,". ",L10)</f>
-        <v>7. Total de funcionarios.</v>
+      <c r="L10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="3" t="n">
+      <c r="O10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,29 +1736,22 @@
       <c r="J11" s="3" t="n">
         <v>5.84</v>
       </c>
-      <c r="K11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K11,". ",L11)</f>
-        <v>8. Total de funcionarios en innovación por manual de funciones.</v>
+      <c r="L11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>5.84</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="P11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="3" t="n">
+      <c r="O11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="3" t="n">
         <v>5.84</v>
       </c>
     </row>
@@ -1866,32 +1783,25 @@
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="L12" s="10" t="s">
+      <c r="J12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K12,". ",L12)</f>
-        <v>9. Total de contratistas.</v>
+      <c r="L12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="3" t="n">
+      <c r="O12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1926,29 +1836,22 @@
       <c r="J13" s="3" t="n">
         <v>4.78</v>
       </c>
-      <c r="K13" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K13,". ",L13)</f>
-        <v>10. Total de contratistas en innovación.</v>
+      <c r="L13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>4.78</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="P13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="3" t="n">
+      <c r="O13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="3" t="n">
         <v>4.78</v>
       </c>
     </row>
@@ -1983,29 +1886,22 @@
       <c r="J14" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K14,". ",L14)</f>
-        <v>11. Ingrese los detalles sobre las actividades</v>
+      <c r="L14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="3" t="n">
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3" t="n">
         <v>3.78</v>
       </c>
     </row>
@@ -2040,29 +1936,22 @@
       <c r="J15" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K15,". ",L15)</f>
-        <v>1. Ingrese los detalles sobre las actividades</v>
+      <c r="L15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="3" t="n">
+      <c r="O15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,29 +1986,22 @@
       <c r="J16" s="3" t="n">
         <v>1.26</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K16,". ",L16)</f>
-        <v>12. Ingrese los detalles sobre los canales para detección de retos</v>
+      <c r="L16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>1.26</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="3" t="n">
+      <c r="O16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="3" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -2154,29 +2036,22 @@
       <c r="J17" s="3" t="n">
         <v>1.26</v>
       </c>
-      <c r="K17" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K17,". ",L17)</f>
-        <v>12. Ingrese los detalles sobre los canales para detección de retos</v>
+      <c r="L17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>1.26</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="3" t="n">
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2211,29 +2086,22 @@
       <c r="J18" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K18" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K18,". ",L18)</f>
-        <v>13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</v>
+      <c r="L18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="3" t="n">
+      <c r="O18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="3" t="n">
         <v>3.78</v>
       </c>
     </row>
@@ -2268,29 +2136,22 @@
       <c r="J19" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K19" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K19,". ",L19)</f>
-        <v>13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</v>
+      <c r="L19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="3" t="n">
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2325,29 +2186,22 @@
       <c r="J20" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K20" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K20,". ",L20)</f>
-        <v>13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</v>
+      <c r="L20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="P20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2382,29 +2236,22 @@
       <c r="J21" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K21" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K21,". ",L21)</f>
-        <v>13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</v>
+      <c r="L21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="3" t="n">
+      <c r="O21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,29 +2286,22 @@
       <c r="J22" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K22" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K22,". ",L22)</f>
-        <v>13. Ingrese los detalles sobre los canales para funcionarios para detección de retos</v>
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="3" t="n">
+      <c r="O22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2496,29 +2336,22 @@
       <c r="J23" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K23" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K23,". ",L23)</f>
-        <v>14. Ingrese los detalles sobre las actividades para detección de retos</v>
+      <c r="L23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="3" t="n">
+      <c r="O23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="3" t="n">
         <v>3.78</v>
       </c>
     </row>
@@ -2553,29 +2386,22 @@
       <c r="J24" s="3" t="n">
         <v>3.78</v>
       </c>
-      <c r="K24" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K24,". ",L24)</f>
-        <v>14. Ingrese los detalles sobre las actividades para detección de retos</v>
+      <c r="L24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>3.78</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="P24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="Q24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" s="3" t="n">
+      <c r="O24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2610,29 +2436,22 @@
       <c r="J25" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K25" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K25,". ",L25)</f>
-        <v>14. Ingrese los detalles sobre las actividades para detección de retos</v>
+      <c r="L25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="3" t="n">
+      <c r="O25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2667,29 +2486,22 @@
       <c r="J26" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K26" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K26,". ",L26)</f>
-        <v>15. Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</v>
+      <c r="L26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" s="3" t="n">
+      <c r="O26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2724,29 +2536,22 @@
       <c r="J27" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K27" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K27,". ",L27)</f>
-        <v>15. Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</v>
+      <c r="L27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="O27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="P27" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,29 +2586,22 @@
       <c r="J28" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K28" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="K28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K28,". ",L28)</f>
-        <v>15. Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</v>
+      <c r="L28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="3" t="n">
+      <c r="O28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,29 +2636,22 @@
       <c r="J29" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K29" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K29,". ",L29)</f>
-        <v>15. Ingrese los detalles sobre los canales para la ciudadanía para la identificación de ideas</v>
+      <c r="L29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="3" t="n">
+      <c r="O29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2895,29 +2686,22 @@
       <c r="J30" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="K30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M30" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K30,". ",L30)</f>
-        <v>16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</v>
+      <c r="L30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="3" t="n">
+      <c r="O30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2952,29 +2736,22 @@
       <c r="J31" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K31" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K31,". ",L31)</f>
-        <v>16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</v>
+      <c r="L31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P31" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Q31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="3" t="n">
+      <c r="O31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3009,29 +2786,22 @@
       <c r="J32" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K32" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="K32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K32,". ",L32)</f>
-        <v>16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</v>
+      <c r="L32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="O32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="3" t="n">
+      <c r="P32" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3066,29 +2836,22 @@
       <c r="J33" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K33" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="K33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K33,". ",L33)</f>
-        <v>16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</v>
+      <c r="L33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Q33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="3" t="n">
+      <c r="O33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3123,29 +2886,22 @@
       <c r="J34" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K34" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="K34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M34" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K34,". ",L34)</f>
-        <v>16. Ingrese los detalles sobre los canales para funcionarios y colaboradores para la identificación de ideas</v>
+      <c r="L34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="3" t="n">
+      <c r="O34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3180,29 +2936,22 @@
       <c r="J35" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K35" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K35,". ",L35)</f>
-        <v>17. Ingrese los detalles sobre las actividades para la identificación de ideas</v>
+      <c r="L35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Q35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="3" t="n">
+      <c r="O35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -3237,29 +2986,22 @@
       <c r="J36" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K36" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="K36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K36,". ",L36)</f>
-        <v>17. Ingrese los detalles sobre las actividades para la identificación de ideas</v>
+      <c r="L36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>4.2</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P36" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Q36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="3" t="n">
+      <c r="O36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,29 +3036,22 @@
       <c r="J37" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K37" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="K37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M37" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K37,". ",L37)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="3" t="n">
+      <c r="O37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="3" t="n">
         <v>10.8</v>
       </c>
     </row>
@@ -3351,29 +3086,22 @@
       <c r="J38" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K38" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="K38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M38" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K38,". ",L38)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P38" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Q38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="3" t="n">
+      <c r="O38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,29 +3136,22 @@
       <c r="J39" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="K39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M39" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K39,". ",L39)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="Q39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R39" s="3" t="n">
+      <c r="O39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3465,29 +3186,22 @@
       <c r="J40" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K40" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="K40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M40" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K40,". ",L40)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="O40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R40" s="3" t="n">
+      <c r="P40" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3522,29 +3236,22 @@
       <c r="J41" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K41" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="K41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M41" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K41,". ",L41)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="O41" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R41" s="3" t="n">
+      <c r="P41" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,29 +3286,22 @@
       <c r="J42" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K42" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="K42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K42,". ",L42)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P42" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="O42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R42" s="3" t="n">
+      <c r="P42" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3636,29 +3336,22 @@
       <c r="J43" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K43" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="K43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M43" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K43,". ",L43)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="O43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="3" t="n">
+      <c r="P43" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3693,29 +3386,22 @@
       <c r="J44" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K44" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M44" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K44,". ",L44)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Q44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="3" t="n">
+      <c r="O44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3750,29 +3436,22 @@
       <c r="J45" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K45" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="K45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M45" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K45,". ",L45)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P45" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Q45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="3" t="n">
+      <c r="O45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3807,29 +3486,22 @@
       <c r="J46" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K46" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="K46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M46" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K46,". ",L46)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P46" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R46" s="3" t="n">
+      <c r="O46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3864,29 +3536,22 @@
       <c r="J47" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K47" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="K47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M47" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K47,". ",L47)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P47" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="O47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R47" s="3" t="n">
+      <c r="P47" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,29 +3586,22 @@
       <c r="J48" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K48" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="K48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M48" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K48,". ",L48)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="O48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R48" s="3" t="n">
+      <c r="P48" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3978,29 +3636,22 @@
       <c r="J49" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="K49" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="K49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M49" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K49,". ",L49)</f>
-        <v>18. Ingrese los detalles sobre las innovaciones diseñadas</v>
+      <c r="L49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>10.8</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="P49" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="O49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R49" s="3" t="n">
+      <c r="P49" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4035,29 +3686,22 @@
       <c r="J50" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K50" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L50" s="3" t="s">
+      <c r="K50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M50" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K50,". ",L50)</f>
-        <v>19. Ingrese los detalles sobre las actividades para la generación de capacidades en innovación</v>
+      <c r="L50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P50" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="Q50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="3" t="n">
+      <c r="O50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4092,29 +3736,22 @@
       <c r="J51" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K51" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L51" s="3" t="s">
+      <c r="K51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M51" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K51,". ",L51)</f>
-        <v>19. Ingrese los detalles sobre las actividades para la generación de capacidades en innovación</v>
+      <c r="L51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P51" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R51" s="3" t="n">
+      <c r="O51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4149,29 +3786,22 @@
       <c r="J52" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K52" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="K52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M52" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K52,". ",L52)</f>
-        <v>20. Ingrese los detalles sobre las innovaciones en proceso de implementación</v>
+      <c r="L52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P52" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Q52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="3" t="n">
+      <c r="O52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="3" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4206,29 +3836,22 @@
       <c r="J53" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K53" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" s="3" t="s">
+      <c r="K53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M53" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K53,". ",L53)</f>
-        <v>20. Ingrese los detalles sobre las innovaciones en proceso de implementación</v>
+      <c r="L53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P53" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="Q53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="3" t="n">
+      <c r="O53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4263,29 +3886,22 @@
       <c r="J54" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K54" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L54" s="3" t="s">
+      <c r="K54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M54" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K54,". ",L54)</f>
-        <v>20. Ingrese los detalles sobre las innovaciones en proceso de implementación</v>
+      <c r="L54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="Q54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R54" s="3" t="n">
+      <c r="O54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,29 +3936,22 @@
       <c r="J55" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K55" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L55" s="3" t="s">
+      <c r="K55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M55" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K55,". ",L55)</f>
-        <v>20. Ingrese los detalles sobre las innovaciones en proceso de implementación</v>
+      <c r="L55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P55" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="Q55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="3" t="n">
+      <c r="O55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4377,29 +3986,22 @@
       <c r="J56" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="K56" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L56" s="3" t="s">
+      <c r="K56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M56" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K56,". ",L56)</f>
-        <v>20. Ingrese los detalles sobre las innovaciones en proceso de implementación</v>
+      <c r="L56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P56" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="Q56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R56" s="3" t="n">
+      <c r="O56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4434,29 +4036,22 @@
       <c r="J57" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="K57" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="L57" s="3" t="s">
+      <c r="K57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M57" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K57,". ",L57)</f>
-        <v>21. Total de funcionarios que recibieron formación en innovación</v>
+      <c r="L57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>3.5</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O57" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P57" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="Q57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R57" s="3" t="n">
+      <c r="O57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -4491,29 +4086,22 @@
       <c r="J58" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="K58" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="K58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M58" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K58,". ",L58)</f>
-        <v>22. Total de contratistas que recibieron formación en innovación</v>
+      <c r="L58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>1.5</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O58" s="3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P58" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R58" s="3" t="n">
+      <c r="O58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4548,29 +4136,22 @@
       <c r="J59" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M59" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K59,". ",L59)</f>
-        <v>23. Detalles sobre los acuerdos y/o actos administrativos relacionados con el concepto de gestión del conocimiento.</v>
+      <c r="L59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="Q59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="3" t="n">
+      <c r="O59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4605,29 +4186,22 @@
       <c r="J60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M60" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K60,". ",L60)</f>
-        <v>23. Detalles sobre los acuerdos y/o actos administrativos relacionados con el concepto de gestión del conocimiento.</v>
+      <c r="L60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="Q60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R60" s="3" t="n">
+      <c r="O60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4662,30 +4236,22 @@
       <c r="J61" s="3" t="n">
         <v>2.94</v>
       </c>
-      <c r="K61" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="L61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M61" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K61,". ",L61)</f>
-        <v>24. Detalles sobre los los enfoques / líneas / componentes / proyectos / 
-programas o planes relacionados con el concepto de gestión del conocimiento.</v>
+      <c r="L61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>2.94</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" s="3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="P61" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="Q61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="3" t="n">
+      <c r="O61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="3" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -4720,30 +4286,22 @@
       <c r="J62" s="3" t="n">
         <v>2.94</v>
       </c>
-      <c r="K62" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M62" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K62,". ",L62)</f>
-        <v>24. Detalles sobre los los enfoques / líneas / componentes / proyectos / 
-programas o planes relacionados con el concepto de gestión del conocimiento.</v>
+      <c r="L62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>2.94</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="P62" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R62" s="3" t="n">
+      <c r="O62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4778,29 +4336,22 @@
       <c r="J63" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="K63" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="K63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M63" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K63,". ",L63)</f>
-        <v>25. Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con la ciudadanía</v>
+      <c r="L63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>0.78</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O63" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P63" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="Q63" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R63" s="3" t="n">
+      <c r="O63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="3" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -4835,29 +4386,22 @@
       <c r="J64" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="K64" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="K64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M64" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K64,". ",L64)</f>
-        <v>26. Detalles sobre el documento relacionado con el proceso o los resultados del proceso de identificación de retos o áreas de oportunidad con los funcionarios y contratistas</v>
+      <c r="L64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>0.78</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P64" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Q64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R64" s="3" t="n">
+      <c r="O64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="3" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -4892,29 +4436,22 @@
       <c r="J65" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="K65" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="L65" s="3" t="s">
+      <c r="K65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M65" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K65,". ",L65)</f>
-        <v>27. Detalles sobre el documento relacionado con el proceso de captación de ideas con la ciudadanía</v>
+      <c r="L65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>0.78</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O65" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P65" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="Q65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R65" s="3" t="n">
+      <c r="O65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="3" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -4949,29 +4486,22 @@
       <c r="J66" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K66" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="L66" s="3" t="s">
+      <c r="K66" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M66" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K66,". ",L66)</f>
-        <v>28. Detalles sobre el documento relacionado con el proceso de captación de ideas con los funcionarios y contratistas</v>
+      <c r="L66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O66" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P66" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="Q66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="3" t="n">
+      <c r="O66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="3" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -5006,29 +4536,22 @@
       <c r="J67" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K67" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="L67" s="3" t="s">
+      <c r="K67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M67" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K67,". ",L67)</f>
-        <v>29. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</v>
+      <c r="L67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O67" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P67" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="Q67" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R67" s="3" t="n">
+      <c r="O67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="3" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -5063,29 +4586,22 @@
       <c r="J68" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K68" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="K68" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M68" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K68,". ",L68)</f>
-        <v>29. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</v>
+      <c r="L68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O68" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P68" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="Q68" s="8" t="s">
+      <c r="O68" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R68" s="3" t="n">
+      <c r="P68" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5120,29 +4636,22 @@
       <c r="J69" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K69" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="L69" s="3" t="s">
+      <c r="K69" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M69" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K69,". ",L69)</f>
-        <v>29. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</v>
+      <c r="L69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P69" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="Q69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="3" t="n">
+      <c r="O69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5177,29 +4686,22 @@
       <c r="J70" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K70" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="K70" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M70" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K70,". ",L70)</f>
-        <v>29. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas en innovación</v>
+      <c r="L70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P70" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="Q70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R70" s="3" t="n">
+      <c r="O70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5234,29 +4736,22 @@
       <c r="J71" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K71" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="K71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M71" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K71,". ",L71)</f>
-        <v>30. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</v>
+      <c r="L71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O71" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P71" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="Q71" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R71" s="3" t="n">
+      <c r="O71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="3" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -5291,29 +4786,22 @@
       <c r="J72" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K72" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L72" s="3" t="s">
+      <c r="K72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M72" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K72,". ",L72)</f>
-        <v>30. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</v>
+      <c r="L72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O72" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P72" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Q72" s="8" t="s">
+      <c r="O72" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R72" s="3" t="n">
+      <c r="P72" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,29 +4836,22 @@
       <c r="J73" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K73" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="K73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M73" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K73,". ",L73)</f>
-        <v>30. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</v>
+      <c r="L73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P73" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Q73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="3" t="n">
+      <c r="O73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5405,29 +4886,22 @@
       <c r="J74" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="K74" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="L74" s="3" t="s">
+      <c r="K74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M74" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K74,". ",L74)</f>
-        <v>30. Detalles sobre el documento relacionado con la identificación de buenas prácticas y lecciones aprendidas</v>
+      <c r="L74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="3" t="n">
+        <v>0.79</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P74" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="Q74" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R74" s="3" t="n">
+      <c r="O74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5462,29 +4936,22 @@
       <c r="J75" s="3" t="n">
         <v>2.35</v>
       </c>
-      <c r="K75" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="L75" s="3" t="s">
+      <c r="K75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M75" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(K75,". ",L75)</f>
-        <v>31. Detalles sobre el documento de segimiento a innovaciones implementadas</v>
+      <c r="L75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="3" t="n">
+        <v>2.35</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P75" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="Q75" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R75" s="3" t="n">
+      <c r="O75" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="3" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -5512,453 +4979,453 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="12" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="39.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="51.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="12" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="11" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="39.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="51.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="11" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>23</v>
       </c>
     </row>
